--- a/Tables/Sources/gameplay/Facility/FacilityProcessingRoom.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityProcessingRoom.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18060"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,28 +22,28 @@
     <t>ID</t>
   </si>
   <si>
-    <t>升级资源</t>
-  </si>
-  <si>
-    <t>升级花费（普通货币）</t>
-  </si>
-  <si>
-    <t>升级条件</t>
-  </si>
-  <si>
-    <t>升级时间（分钟）</t>
+    <t>升级资源（id|数量）</t>
+  </si>
+  <si>
+    <t>升级花费</t>
+  </si>
+  <si>
+    <t>升级条件（主船等级）</t>
+  </si>
+  <si>
+    <t>升级时间（s）</t>
   </si>
   <si>
     <t>模型资源</t>
   </si>
   <si>
-    <t>解锁组件制作图</t>
+    <t>解锁组件制作图（id）</t>
   </si>
   <si>
     <t>解锁制作位数量</t>
   </si>
   <si>
-    <t>主动解锁制作位置消耗</t>
+    <t>主动解锁制作位置消耗（充值货币）</t>
   </si>
   <si>
     <t>A</t>
@@ -126,58 +126,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -194,15 +142,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,16 +171,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,9 +187,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -248,6 +202,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -256,7 +218,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,7 +241,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,13 +285,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,13 +387,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,7 +435,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,139 +465,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,11 +496,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,11 +533,46 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,49 +591,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,133 +609,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1101,7 +1101,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>

--- a/Tables/Sources/gameplay/Facility/FacilityProcessingRoom.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityProcessingRoom.xlsx
@@ -99,9 +99,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -127,7 +127,81 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,28 +215,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -171,23 +223,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,70 +239,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,43 +285,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,67 +453,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,66 +466,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,6 +503,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -533,46 +542,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,16 +565,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,133 +609,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1101,7 +1101,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
@@ -1194,13 +1194,13 @@
         <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="12" spans="1:9">

--- a/Tables/Sources/gameplay/Facility/FacilityProcessingRoom.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityProcessingRoom.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -82,16 +82,13 @@
     <t>UnlockSpaceCost</t>
   </si>
   <si>
-    <t>1001|300;1004|160</t>
-  </si>
-  <si>
-    <t>1001|500;1004|300</t>
-  </si>
-  <si>
-    <t>1001|1200;1004|800</t>
-  </si>
-  <si>
-    <t>1003|2000;1004|2000</t>
+    <t>1001|20;1002|10</t>
+  </si>
+  <si>
+    <t>1302|1304</t>
+  </si>
+  <si>
+    <t>1306|1308</t>
   </si>
 </sst>
 </file>
@@ -99,10 +96,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -127,6 +124,49 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -134,50 +174,63 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,72 +252,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,187 +282,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,15 +500,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -523,6 +511,56 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,48 +584,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,10 +594,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,137 +606,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -749,6 +746,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1096,22 +1096,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="5.37962962962963" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.6296296296296" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.3796296296296" style="2" customWidth="1"/>
     <col min="4" max="5" width="19.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="22.8148148148148" style="3" customWidth="1"/>
-    <col min="7" max="8" width="12.3796296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.7777777777778" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.3796296296296" style="2" customWidth="1"/>
     <col min="9" max="9" width="13.4444444444444" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
@@ -1194,7 +1195,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>10</v>
@@ -1246,10 +1247,10 @@
         <v>4</v>
       </c>
       <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2">
-        <v>101</v>
+        <v>60</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1301</v>
       </c>
       <c r="H5" s="2">
         <v>1</v>
@@ -1263,7 +1264,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2">
         <v>3600</v>
@@ -1272,10 +1273,10 @@
         <v>5</v>
       </c>
       <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2">
-        <v>102</v>
+        <v>60</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1303</v>
       </c>
       <c r="H6" s="2">
         <v>2</v>
@@ -1289,7 +1290,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
         <v>6000</v>
@@ -1298,10 +1299,10 @@
         <v>6</v>
       </c>
       <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2">
-        <v>103</v>
+        <v>60</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1305</v>
       </c>
       <c r="H7" s="2">
         <v>3</v>
@@ -1315,7 +1316,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2">
         <v>11000</v>
@@ -1324,16 +1325,108 @@
         <v>8</v>
       </c>
       <c r="E8" s="2">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2">
-        <v>104</v>
+        <v>60</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1307</v>
       </c>
       <c r="H8" s="2">
         <v>4</v>
       </c>
       <c r="I8" s="2">
         <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="2">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2">
+        <v>11001</v>
+      </c>
+      <c r="D9" s="2">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2">
+        <v>60</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="2">
+        <v>5</v>
+      </c>
+      <c r="I9" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="2">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2">
+        <v>11002</v>
+      </c>
+      <c r="D10" s="2">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2">
+        <v>60</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="2">
+        <v>6</v>
+      </c>
+      <c r="I10" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" hidden="1" spans="1:7">
+      <c r="A11" s="2">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2">
+        <v>11001</v>
+      </c>
+      <c r="D11" s="2">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2">
+        <v>60</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="12" hidden="1" spans="1:7">
+      <c r="A12" s="2">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2">
+        <v>11002</v>
+      </c>
+      <c r="D12" s="2">
+        <v>12</v>
+      </c>
+      <c r="E12" s="2">
+        <v>60</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1008</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Facility/FacilityProcessingRoom.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityProcessingRoom.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>1001|20;1002|10</t>
+  </si>
+  <si>
+    <t>ABC_A</t>
   </si>
   <si>
     <t>1302|1304</t>
@@ -96,10 +99,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -123,8 +126,91 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,107 +224,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,15 +264,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,61 +285,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,121 +465,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,6 +497,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -511,45 +523,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,16 +561,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -606,133 +609,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1101,7 +1104,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1249,6 +1252,9 @@
       <c r="E5" s="2">
         <v>60</v>
       </c>
+      <c r="F5" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="G5" s="4">
         <v>1301</v>
       </c>
@@ -1275,6 +1281,9 @@
       <c r="E6" s="2">
         <v>60</v>
       </c>
+      <c r="F6" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="G6" s="4">
         <v>1303</v>
       </c>
@@ -1301,6 +1310,9 @@
       <c r="E7" s="2">
         <v>60</v>
       </c>
+      <c r="F7" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="G7" s="4">
         <v>1305</v>
       </c>
@@ -1327,6 +1339,9 @@
       <c r="E8" s="2">
         <v>60</v>
       </c>
+      <c r="F8" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="G8" s="4">
         <v>1307</v>
       </c>
@@ -1353,8 +1368,11 @@
       <c r="E9" s="2">
         <v>60</v>
       </c>
+      <c r="F9" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="G9" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H9" s="2">
         <v>5</v>
@@ -1379,8 +1397,11 @@
       <c r="E10" s="2">
         <v>60</v>
       </c>
+      <c r="F10" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="G10" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H10" s="2">
         <v>6</v>
@@ -1404,6 +1425,9 @@
       </c>
       <c r="E11" s="2">
         <v>60</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="G11" s="4">
         <v>1007</v>

--- a/Tables/Sources/gameplay/Facility/FacilityProcessingRoom.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityProcessingRoom.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="12990" windowHeight="9010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,75 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,42 +207,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,62 +230,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -252,16 +237,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,25 +282,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,157 +456,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,11 +491,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,15 +517,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,26 +553,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,16 +568,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -606,133 +606,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1104,20 +1104,20 @@
       <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="5.37962962962963" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.6296296296296" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.3796296296296" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.38181818181818" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.6272727272727" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.3818181818182" style="2" customWidth="1"/>
     <col min="4" max="5" width="19.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22.8148148148148" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.7777777777778" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.3796296296296" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.4444444444444" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.8181818181818" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.7818181818182" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.3818181818182" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.4454545454545" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="12" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="12" spans="1:9">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="12" spans="1:9">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="12" spans="1:9">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>

--- a/Tables/Sources/gameplay/Facility/FacilityProcessingRoom.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityProcessingRoom.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="14530" windowHeight="12930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -88,10 +88,10 @@
     <t>ABC_A</t>
   </si>
   <si>
-    <t>1302|1304</t>
-  </si>
-  <si>
-    <t>1306|1308</t>
+    <t>1005|1008</t>
+  </si>
+  <si>
+    <t>1011|1014</t>
   </si>
 </sst>
 </file>
@@ -99,9 +99,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -126,6 +126,96 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -134,127 +224,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -263,6 +232,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -285,13 +285,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,169 +381,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,18 +496,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,13 +520,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,30 +568,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -591,16 +582,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,133 +609,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1101,26 +1101,26 @@
   <sheetPr/>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5:F11"/>
+      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="5.37962962962963" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.6296296296296" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.3796296296296" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.38181818181818" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.6272727272727" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.3818181818182" style="2" customWidth="1"/>
     <col min="4" max="5" width="19.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22.8148148148148" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.7777777777778" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.3796296296296" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.4444444444444" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.8181818181818" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.7818181818182" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.3818181818182" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.4454545454545" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="12" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="12" spans="1:9">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="12" spans="1:9">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="12" spans="1:9">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="4">
-        <v>1301</v>
+        <v>1004</v>
       </c>
       <c r="H5" s="2">
         <v>1</v>
@@ -1285,7 +1285,7 @@
         <v>22</v>
       </c>
       <c r="G6" s="4">
-        <v>1303</v>
+        <v>1007</v>
       </c>
       <c r="H6" s="2">
         <v>2</v>
@@ -1314,7 +1314,7 @@
         <v>22</v>
       </c>
       <c r="G7" s="4">
-        <v>1305</v>
+        <v>1010</v>
       </c>
       <c r="H7" s="2">
         <v>3</v>
@@ -1343,7 +1343,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="4">
-        <v>1307</v>
+        <v>1013</v>
       </c>
       <c r="H8" s="2">
         <v>4</v>

--- a/Tables/Sources/gameplay/Facility/FacilityProcessingRoom.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityProcessingRoom.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14530" windowHeight="12930"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -88,20 +88,45 @@
     <t>ABC_A</t>
   </si>
   <si>
+    <t>铁</t>
+  </si>
+  <si>
+    <t>硝石</t>
+  </si>
+  <si>
+    <t>皮革</t>
+  </si>
+  <si>
+    <t>紫水晶</t>
+  </si>
+  <si>
     <t>1005|1008</t>
   </si>
   <si>
+    <t>钢</t>
+  </si>
+  <si>
+    <t>火药</t>
+  </si>
+  <si>
     <t>1011|1014</t>
+  </si>
+  <si>
+    <t>精皮革</t>
+  </si>
+  <si>
+    <t>黑水晶</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -127,6 +152,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -134,21 +189,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,37 +216,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -208,14 +234,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -240,6 +258,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -264,7 +289,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,187 +310,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,10 +622,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,137 +634,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -752,6 +777,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1099,28 +1130,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.38181818181818" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.6272727272727" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.3818181818182" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.37962962962963" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.6296296296296" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.3796296296296" style="2" customWidth="1"/>
     <col min="4" max="5" width="19.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22.8181818181818" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.7818181818182" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.3818181818182" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.4454545454545" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.8148148148148" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.7777777777778" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.3796296296296" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.4444444444444" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="12" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1149,7 +1180,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:9">
+    <row r="2" s="1" customFormat="1" ht="12" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1178,7 +1209,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:9">
+    <row r="3" s="1" customFormat="1" ht="12" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1207,7 +1238,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:9">
+    <row r="4" s="1" customFormat="1" ht="12" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1236,7 +1267,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1255,7 +1286,7 @@
       <c r="F5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="2">
         <v>1004</v>
       </c>
       <c r="H5" s="2">
@@ -1264,8 +1295,14 @@
       <c r="I5" s="2">
         <v>100</v>
       </c>
+      <c r="J5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1004</v>
+      </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1284,7 +1321,7 @@
       <c r="F6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="2">
         <v>1007</v>
       </c>
       <c r="H6" s="2">
@@ -1293,8 +1330,14 @@
       <c r="I6" s="2">
         <v>101</v>
       </c>
+      <c r="J6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1007</v>
+      </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1313,7 +1356,7 @@
       <c r="F7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="2">
         <v>1010</v>
       </c>
       <c r="H7" s="2">
@@ -1322,8 +1365,14 @@
       <c r="I7" s="2">
         <v>102</v>
       </c>
+      <c r="J7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1010</v>
+      </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -1342,7 +1391,7 @@
       <c r="F8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="2">
         <v>1013</v>
       </c>
       <c r="H8" s="2">
@@ -1351,8 +1400,14 @@
       <c r="I8" s="2">
         <v>103</v>
       </c>
+      <c r="J8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1013</v>
+      </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:13">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -1372,7 +1427,7 @@
         <v>22</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H9" s="2">
         <v>5</v>
@@ -1380,8 +1435,20 @@
       <c r="I9" s="2">
         <v>104</v>
       </c>
+      <c r="J9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="6">
+        <v>1005</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1008</v>
+      </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:13">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -1401,13 +1468,25 @@
         <v>22</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H10" s="2">
         <v>6</v>
       </c>
       <c r="I10" s="2">
         <v>105</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="6">
+        <v>1011</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1014</v>
       </c>
     </row>
     <row r="11" hidden="1" spans="1:7">

--- a/Tables/Sources/gameplay/Facility/FacilityProcessingRoom.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityProcessingRoom.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -31,9 +31,6 @@
     <t>升级条件（主船等级）</t>
   </si>
   <si>
-    <t>升级时间（s）</t>
-  </si>
-  <si>
     <t>模型资源</t>
   </si>
   <si>
@@ -65,9 +62,6 @@
   </si>
   <si>
     <t>UpgradePreconditions</t>
-  </si>
-  <si>
-    <t>UpgradeTime</t>
   </si>
   <si>
     <t>ModelResources</t>
@@ -124,8 +118,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -165,31 +159,53 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,9 +219,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,6 +249,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -243,53 +266,24 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,181 +304,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,11 +515,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,6 +537,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -556,15 +557,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,9 +602,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,142 +616,142 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1130,12 +1124,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E$1:E$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1143,15 +1137,15 @@
     <col min="1" max="1" width="5.37962962962963" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.6296296296296" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.3796296296296" style="2" customWidth="1"/>
-    <col min="4" max="5" width="19.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22.8148148148148" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.7777777777778" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.3796296296296" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.4444444444444" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="19.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.8148148148148" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.7777777777778" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.3796296296296" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.4444444444444" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="12" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="12" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1176,103 +1170,91 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" ht="12" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="12" spans="1:9">
-      <c r="A2" s="1" t="s">
+    <row r="3" s="1" customFormat="1" ht="12" spans="1:8">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="12" spans="1:9">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="12" spans="1:8">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>10</v>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="12" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
         <v>2500</v>
@@ -1280,34 +1262,31 @@
       <c r="D5" s="2">
         <v>4</v>
       </c>
-      <c r="E5" s="2">
-        <v>60</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>22</v>
+      <c r="E5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1004</v>
       </c>
       <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>100</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="2">
         <v>1004</v>
       </c>
-      <c r="H5" s="2">
-        <v>1</v>
-      </c>
-      <c r="I5" s="2">
-        <v>100</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="2">
-        <v>1004</v>
-      </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2">
         <v>3600</v>
@@ -1315,34 +1294,31 @@
       <c r="D6" s="2">
         <v>5</v>
       </c>
-      <c r="E6" s="2">
-        <v>60</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="E6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1007</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2">
+        <v>101</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="2">
+      <c r="J6" s="2">
         <v>1007</v>
       </c>
-      <c r="H6" s="2">
-        <v>2</v>
-      </c>
-      <c r="I6" s="2">
-        <v>101</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="2">
-        <v>1007</v>
-      </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>6000</v>
@@ -1350,34 +1326,31 @@
       <c r="D7" s="2">
         <v>6</v>
       </c>
-      <c r="E7" s="2">
-        <v>60</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>22</v>
+      <c r="E7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1010</v>
       </c>
       <c r="G7" s="2">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2">
+        <v>102</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="2">
         <v>1010</v>
       </c>
-      <c r="H7" s="2">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2">
-        <v>102</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="2">
-        <v>1010</v>
-      </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:10">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2">
         <v>11000</v>
@@ -1385,34 +1358,31 @@
       <c r="D8" s="2">
         <v>8</v>
       </c>
-      <c r="E8" s="2">
-        <v>60</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>22</v>
+      <c r="E8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1013</v>
       </c>
       <c r="G8" s="2">
+        <v>4</v>
+      </c>
+      <c r="H8" s="2">
+        <v>103</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="2">
         <v>1013</v>
       </c>
-      <c r="H8" s="2">
-        <v>4</v>
-      </c>
-      <c r="I8" s="2">
-        <v>103</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="2">
-        <v>1013</v>
-      </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:12">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2">
         <v>11001</v>
@@ -1420,40 +1390,37 @@
       <c r="D9" s="2">
         <v>10</v>
       </c>
-      <c r="E9" s="2">
-        <v>60</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="E9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="2">
+        <v>5</v>
+      </c>
+      <c r="H9" s="2">
+        <v>104</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="6">
+        <v>1005</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="2">
-        <v>5</v>
-      </c>
-      <c r="I9" s="2">
-        <v>104</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="6">
-        <v>1005</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="M9" s="2">
+      <c r="L9" s="2">
         <v>1008</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:12">
       <c r="A10" s="2">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2">
         <v>11002</v>
@@ -1461,40 +1428,37 @@
       <c r="D10" s="2">
         <v>12</v>
       </c>
-      <c r="E10" s="2">
-        <v>60</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="E10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="2">
+        <v>6</v>
+      </c>
+      <c r="H10" s="2">
+        <v>105</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="6">
+        <v>1011</v>
+      </c>
+      <c r="K10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="2">
-        <v>6</v>
-      </c>
-      <c r="I10" s="2">
-        <v>105</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="6">
-        <v>1011</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="2">
+      <c r="L10" s="2">
         <v>1014</v>
       </c>
     </row>
-    <row r="11" hidden="1" spans="1:7">
+    <row r="11" hidden="1" spans="1:6">
       <c r="A11" s="2">
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2">
         <v>11001</v>
@@ -1502,22 +1466,19 @@
       <c r="D11" s="2">
         <v>10</v>
       </c>
-      <c r="E11" s="2">
-        <v>60</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="4">
+      <c r="E11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="4">
         <v>1007</v>
       </c>
     </row>
-    <row r="12" hidden="1" spans="1:7">
+    <row r="12" hidden="1" spans="1:6">
       <c r="A12" s="2">
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2">
         <v>11002</v>
@@ -1525,10 +1486,7 @@
       <c r="D12" s="2">
         <v>12</v>
       </c>
-      <c r="E12" s="2">
-        <v>60</v>
-      </c>
-      <c r="G12" s="4">
+      <c r="F12" s="4">
         <v>1008</v>
       </c>
     </row>

--- a/Tables/Sources/gameplay/Facility/FacilityProcessingRoom.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityProcessingRoom.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
@@ -43,7 +43,16 @@
     <t>主动解锁制作位置消耗（充值货币）</t>
   </si>
   <si>
+    <t>材料名称</t>
+  </si>
+  <si>
+    <t>材料id</t>
+  </si>
+  <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
   <si>
     <t>int</t>
@@ -117,11 +126,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -153,6 +162,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -160,38 +176,79 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -203,24 +260,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,62 +285,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,187 +313,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,15 +522,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -539,8 +539,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -565,7 +567,25 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,162 +619,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1126,10 +1135,10 @@
   <sheetPr/>
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E$1:E$1048576"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1145,7 +1154,7 @@
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="12" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="12" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1170,83 +1179,107 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="12" spans="1:8">
+    <row r="2" s="1" customFormat="1" ht="12" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="12" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="12" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1254,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2">
         <v>2500</v>
@@ -1263,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2">
         <v>1004</v>
@@ -1275,7 +1308,7 @@
         <v>100</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J5" s="2">
         <v>1004</v>
@@ -1286,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2">
         <v>3600</v>
@@ -1295,7 +1328,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2">
         <v>1007</v>
@@ -1307,7 +1340,7 @@
         <v>101</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J6" s="2">
         <v>1007</v>
@@ -1318,7 +1351,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2">
         <v>6000</v>
@@ -1327,7 +1360,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2">
         <v>1010</v>
@@ -1339,7 +1372,7 @@
         <v>102</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J7" s="2">
         <v>1010</v>
@@ -1350,7 +1383,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
         <v>11000</v>
@@ -1359,7 +1392,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2">
         <v>1013</v>
@@ -1371,7 +1404,7 @@
         <v>103</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J8" s="2">
         <v>1013</v>
@@ -1382,7 +1415,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2">
         <v>11001</v>
@@ -1391,10 +1424,10 @@
         <v>10</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G9" s="2">
         <v>5</v>
@@ -1403,13 +1436,13 @@
         <v>104</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J9" s="6">
         <v>1005</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L9" s="2">
         <v>1008</v>
@@ -1420,7 +1453,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <v>11002</v>
@@ -1429,10 +1462,10 @@
         <v>12</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G10" s="2">
         <v>6</v>
@@ -1441,13 +1474,13 @@
         <v>105</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J10" s="6">
         <v>1011</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L10" s="2">
         <v>1014</v>
@@ -1458,7 +1491,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2">
         <v>11001</v>
@@ -1467,7 +1500,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F11" s="4">
         <v>1007</v>
@@ -1478,7 +1511,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2">
         <v>11002</v>

--- a/Tables/Sources/gameplay/Facility/FacilityProcessingRoom.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityProcessingRoom.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
@@ -126,11 +126,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -155,6 +155,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -162,21 +169,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,25 +205,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,6 +259,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -267,9 +275,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,22 +292,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,13 +313,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,169 +469,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,17 +537,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -566,6 +555,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -577,15 +575,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,16 +608,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -637,133 +637,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1133,12 +1133,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1448,7 +1448,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" ht="12" customHeight="1" spans="1:12">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -1484,43 +1484,6 @@
       </c>
       <c r="L10" s="2">
         <v>1014</v>
-      </c>
-    </row>
-    <row r="11" hidden="1" spans="1:6">
-      <c r="A11" s="2">
-        <v>5</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="2">
-        <v>11001</v>
-      </c>
-      <c r="D11" s="2">
-        <v>10</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="12" hidden="1" spans="1:6">
-      <c r="A12" s="2">
-        <v>6</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="2">
-        <v>11002</v>
-      </c>
-      <c r="D12" s="2">
-        <v>12</v>
-      </c>
-      <c r="F12" s="4">
-        <v>1008</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Facility/FacilityProcessingRoom.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityProcessingRoom.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowHeight="18060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
   <si>
     <t>ID</t>
   </si>
@@ -97,13 +97,16 @@
     <t>硝石</t>
   </si>
   <si>
+    <t>紫水晶</t>
+  </si>
+  <si>
+    <t>铜</t>
+  </si>
+  <si>
     <t>皮革</t>
   </si>
   <si>
-    <t>紫水晶</t>
-  </si>
-  <si>
-    <t>1005|1008</t>
+    <t>粗麻布</t>
   </si>
   <si>
     <t>钢</t>
@@ -112,13 +115,16 @@
     <t>火药</t>
   </si>
   <si>
-    <t>1011|1014</t>
+    <t>黑水晶</t>
+  </si>
+  <si>
+    <t>黄铜</t>
   </si>
   <si>
     <t>精皮革</t>
   </si>
   <si>
-    <t>黑水晶</t>
+    <t>精麻布</t>
   </si>
 </sst>
 </file>
@@ -126,11 +132,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -154,76 +160,40 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -235,19 +205,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -259,40 +229,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,13 +319,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,169 +439,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,6 +524,48 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,33 +600,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -589,21 +610,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -625,149 +631,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -777,9 +783,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1133,15 +1136,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="5.37962962962963" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.6296296296296" style="2" customWidth="1"/>
@@ -1154,7 +1157,7 @@
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="12" spans="1:12">
+    <row r="1" s="1" customFormat="1" ht="12" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1191,8 +1194,14 @@
       <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="12" spans="1:12">
+    <row r="2" s="1" customFormat="1" ht="12" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1227,6 +1236,12 @@
         <v>11</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1282,7 +1297,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:14">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1298,8 +1313,9 @@
       <c r="E5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="2">
-        <v>1004</v>
+      <c r="F5" s="2" t="str">
+        <f>J5&amp;"|"&amp;L5&amp;"|"&amp;N5</f>
+        <v>1004|1007|1013</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
@@ -1307,14 +1323,26 @@
       <c r="H5" s="2">
         <v>100</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>24</v>
       </c>
       <c r="J5" s="2">
         <v>1004</v>
       </c>
+      <c r="K5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1007</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1013</v>
+      </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:14">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1330,8 +1358,9 @@
       <c r="E6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="2">
-        <v>1007</v>
+      <c r="F6" s="2" t="str">
+        <f>J6&amp;"|"&amp;L6&amp;"|"&amp;N6</f>
+        <v>1051|1010|1048</v>
       </c>
       <c r="G6" s="2">
         <v>2</v>
@@ -1339,14 +1368,26 @@
       <c r="H6" s="2">
         <v>101</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>25</v>
+      <c r="I6" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="J6" s="2">
-        <v>1007</v>
+        <v>1051</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1010</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1048</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:14">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1362,8 +1403,9 @@
       <c r="E7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="2">
-        <v>1010</v>
+      <c r="F7" s="2" t="str">
+        <f>J7&amp;"|"&amp;L7&amp;"|"&amp;N7</f>
+        <v>1005|1008|1014</v>
       </c>
       <c r="G7" s="2">
         <v>3</v>
@@ -1371,14 +1413,26 @@
       <c r="H7" s="2">
         <v>102</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="2">
-        <v>1010</v>
+      <c r="I7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="5">
+        <v>1005</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1008</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1014</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:14">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -1394,8 +1448,9 @@
       <c r="E8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="2">
-        <v>1013</v>
+      <c r="F8" s="2" t="str">
+        <f>J8&amp;"|"&amp;L8&amp;"|"&amp;N8</f>
+        <v>1052|1011|1049</v>
       </c>
       <c r="G8" s="2">
         <v>4</v>
@@ -1403,87 +1458,23 @@
       <c r="H8" s="2">
         <v>103</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>27</v>
+      <c r="I8" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="J8" s="2">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="2">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="2">
-        <v>11001</v>
-      </c>
-      <c r="D9" s="2">
-        <v>10</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="2">
-        <v>5</v>
-      </c>
-      <c r="H9" s="2">
-        <v>104</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="6">
-        <v>1005</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="2">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="10" ht="12" customHeight="1" spans="1:12">
-      <c r="A10" s="2">
-        <v>6</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="2">
-        <v>11002</v>
-      </c>
-      <c r="D10" s="2">
-        <v>12</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="2">
-        <v>6</v>
-      </c>
-      <c r="H10" s="2">
-        <v>105</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="6">
+        <v>1052</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="2">
         <v>1011</v>
       </c>
-      <c r="K10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" s="2">
-        <v>1014</v>
+      <c r="M8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1049</v>
       </c>
     </row>
   </sheetData>
